--- a/原始施工记录/13号楼/竣工资料/4.竣工验收证明书.xlsx
+++ b/原始施工记录/13号楼/竣工资料/4.竣工验收证明书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23233" windowHeight="9583"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>施工许可证号:</t>
   </si>
   <si>
-    <t>140202202007210102</t>
+    <t>140202202009180102</t>
   </si>
   <si>
     <t>编号:</t>
@@ -40,7 +40,7 @@
     <t>工程名称</t>
   </si>
   <si>
-    <t>大同七里村碧桂园二期桩基础工程1#楼</t>
+    <t>大同七里村碧桂园二期桩基础工程13#楼</t>
   </si>
   <si>
     <t>建筑面积</t>
@@ -64,17 +64,17 @@
     <t>开竣工日期</t>
   </si>
   <si>
-    <t>2020年7月21日</t>
-  </si>
-  <si>
-    <t>2020年8月7日</t>
+    <t>2020年10月14日</t>
+  </si>
+  <si>
+    <t>2020年10月25日</t>
   </si>
   <si>
     <t>工程内容
 及检查情况</t>
   </si>
   <si>
-    <t xml:space="preserve">    CFG灌注桩，桩径400mm，有效桩长27m,桩数594根;桩径均大于400 mm；混凝土灌入量充盈系数均大于1.20；平均充盈系数1.24；单桩竖向抗压承载力极限值700KN；
+    <t xml:space="preserve">    CFG灌注桩，桩径400mm，有效桩长30m,桩数540根;桩径均大于400 mm；混凝土灌入量充盈系数均大于1.20；平均充盈系数1.25；单桩竖向抗压承载力极限值700KN；
     施工过程中和竣工后施工单位的自检与监理单位的复检，施工过程的质量控制均符合国家有关规范和设计文件的规定和要求。检测单位的检测结果：各项技术指标全部达到设计文件的规定和要求，并符合国家有关规范的规定和要求。
     竣工资料基本齐全，工程质量达到《建筑工程施工质量验收统一标准》（GB50300—2001）合格标准。</t>
   </si>
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -177,17 +177,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -198,9 +212,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,46 +281,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,14 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,15 +311,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,21 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -348,19 +348,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,163 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +874,51 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,21 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -920,32 +950,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,155 +967,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,16 +1663,16 @@
   <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+      <selection activeCell="AT5" sqref="AT5:AY5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14678899082569" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="2.85321100917431" customWidth="1"/>
-    <col min="5" max="5" width="3.43119266055046" customWidth="1"/>
-    <col min="6" max="37" width="2.85321100917431" customWidth="1"/>
-    <col min="38" max="38" width="3.56880733944954" customWidth="1"/>
-    <col min="39" max="51" width="2.85321100917431" customWidth="1"/>
+    <col min="1" max="4" width="2.85714285714286" customWidth="1"/>
+    <col min="5" max="5" width="3.42857142857143" customWidth="1"/>
+    <col min="6" max="37" width="2.85714285714286" customWidth="1"/>
+    <col min="38" max="38" width="3.57142857142857" customWidth="1"/>
+    <col min="39" max="51" width="2.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.55" customHeight="1" spans="1:51">
